--- a/gender_check.xlsx
+++ b/gender_check.xlsx
@@ -37,7 +37,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>O</t>
+    <t>U</t>
   </si>
   <si>
     <t>Male</t>
@@ -49,7 +49,7 @@
     <t>Non-Binary</t>
   </si>
   <si>
-    <t>Others</t>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -435,10 +435,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="D2">
-        <v>108468.978308026</v>
+        <v>107122.6231884058</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -452,10 +452,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D3">
-        <v>98194.92820512821</v>
+        <v>98237.46194225721</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -469,10 +469,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>116456.5897435897</v>
+        <v>117484.2285714286</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -486,10 +486,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>87200.5172413793</v>
+        <v>106893.125</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
